--- a/relatorio-automatico/worker/CNPJ.xlsx
+++ b/relatorio-automatico/worker/CNPJ.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A492"/>
+  <dimension ref="A1:A940"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -766,1565 +766,2013 @@
     <row r="266"/>
     <row r="267"/>
     <row r="268"/>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717">
+      <c r="A717" t="inlineStr">
         <is>
           <t>44.768.699/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="718">
+      <c r="A718" t="inlineStr">
         <is>
           <t>11.923.946/0001-46</t>
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="719">
+      <c r="A719" t="inlineStr">
         <is>
           <t>11.923.946/0001-46</t>
         </is>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+    <row r="720">
+      <c r="A720" t="inlineStr">
         <is>
           <t>39.979.804/0001-10</t>
         </is>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+    <row r="721">
+      <c r="A721" t="inlineStr">
         <is>
           <t>05.337.875/0001-05</t>
         </is>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+    <row r="722">
+      <c r="A722" t="inlineStr">
         <is>
           <t>17.685.568/0001-96</t>
         </is>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+    <row r="723">
+      <c r="A723" t="inlineStr">
         <is>
           <t>02.460.809/0001-21</t>
         </is>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+    <row r="724">
+      <c r="A724" t="inlineStr">
         <is>
           <t>80.004.211/0001-31</t>
         </is>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+    <row r="725">
+      <c r="A725" t="inlineStr">
         <is>
           <t>32.908.188/0001-67</t>
         </is>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>21.122.489/0001-44</t>
         </is>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>02.335.970/0001-73</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>03.803.317/0007-40</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>18.979.791/0001-09</t>
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>11.324.248/0001-24</t>
         </is>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>08.612.803/0001-09</t>
         </is>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>08.612.803/0001-09</t>
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>85.200.665/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>85.200.665/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+    <row r="735">
+      <c r="A735" t="inlineStr">
         <is>
           <t>15.087.394/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+    <row r="736">
+      <c r="A736" t="inlineStr">
         <is>
           <t>85.200.665/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+    <row r="737">
+      <c r="A737" t="inlineStr">
         <is>
           <t>85.200.665/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+    <row r="738">
+      <c r="A738" t="inlineStr">
         <is>
           <t>11.324.248/0001-24</t>
         </is>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
+    <row r="739">
+      <c r="A739" t="inlineStr">
         <is>
           <t>76.535.764/0001-43</t>
         </is>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+    <row r="740">
+      <c r="A740" t="inlineStr">
         <is>
           <t>05.423.963/0001-11</t>
         </is>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
+    <row r="741">
+      <c r="A741" t="inlineStr">
         <is>
           <t>05.423.963/0001-11</t>
         </is>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
+    <row r="742">
+      <c r="A742" t="inlineStr">
         <is>
           <t>05.423.963/0001-11</t>
         </is>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
+    <row r="743">
+      <c r="A743" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
+    <row r="744">
+      <c r="A744" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
+    <row r="745">
+      <c r="A745" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
+    <row r="746">
+      <c r="A746" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="747">
+      <c r="A747" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
+    <row r="748">
+      <c r="A748" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
+    <row r="749">
+      <c r="A749" t="inlineStr">
         <is>
           <t>00.371.074/0001-34</t>
         </is>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
+    <row r="750">
+      <c r="A750" t="inlineStr">
         <is>
           <t>02.477.571/0001-47</t>
         </is>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
+    <row r="751">
+      <c r="A751" t="inlineStr">
         <is>
           <t>02.477.571/0001-47</t>
         </is>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
+    <row r="752">
+      <c r="A752" t="inlineStr">
         <is>
           <t>09.222.369/0001-13</t>
         </is>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
+    <row r="753">
+      <c r="A753" t="inlineStr">
         <is>
           <t>07.897.039/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
+    <row r="754">
+      <c r="A754" t="inlineStr">
         <is>
           <t>17.791.395/0001-90</t>
         </is>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
+    <row r="755">
+      <c r="A755" t="inlineStr">
         <is>
           <t>02.136.854/0001-25</t>
         </is>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
+    <row r="756">
+      <c r="A756" t="inlineStr">
         <is>
           <t>47.204.354/0001-11</t>
         </is>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
+    <row r="757">
+      <c r="A757" t="inlineStr">
         <is>
           <t>13.134.811/0001-27</t>
         </is>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
+    <row r="758">
+      <c r="A758" t="inlineStr">
         <is>
           <t>13.134.811/0001-27</t>
         </is>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
+    <row r="759">
+      <c r="A759" t="inlineStr">
         <is>
           <t>13.134.811/0001-27</t>
         </is>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
+    <row r="760">
+      <c r="A760" t="inlineStr">
         <is>
           <t>05.969.672/0001-23</t>
         </is>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
+    <row r="761">
+      <c r="A761" t="inlineStr">
         <is>
           <t>53.113.791/0001-22</t>
         </is>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
+    <row r="762">
+      <c r="A762" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
+    <row r="763">
+      <c r="A763" t="inlineStr">
         <is>
           <t>33.000.118/0001-79</t>
         </is>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
+    <row r="764">
+      <c r="A764" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
+    <row r="765">
+      <c r="A765" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
+    <row r="766">
+      <c r="A766" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
+    <row r="767">
+      <c r="A767" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
+    <row r="768">
+      <c r="A768" t="inlineStr">
         <is>
           <t>02.558.157/0001-62</t>
         </is>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
+    <row r="769">
+      <c r="A769" t="inlineStr">
         <is>
           <t>01.590.728/0009-30</t>
         </is>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
+    <row r="770">
+      <c r="A770" t="inlineStr">
         <is>
           <t>04.724.729/0001-61</t>
         </is>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
+    <row r="771">
+      <c r="A771" t="inlineStr">
         <is>
           <t>04.724.729/0001-61</t>
         </is>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
+    <row r="772">
+      <c r="A772" t="inlineStr">
         <is>
           <t>19.232.342/0001-65</t>
         </is>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
+    <row r="773">
+      <c r="A773" t="inlineStr">
         <is>
           <t>13.498.644/0001-01</t>
         </is>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
+    <row r="774">
+      <c r="A774" t="inlineStr">
         <is>
           <t>05.340.639/0001-30</t>
         </is>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
+    <row r="775">
+      <c r="A775" t="inlineStr">
         <is>
           <t>72.381.189/0001-10</t>
         </is>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
+    <row r="776">
+      <c r="A776" t="inlineStr">
         <is>
           <t>22.862.119/0001-06</t>
         </is>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
+    <row r="777">
+      <c r="A777" t="inlineStr">
         <is>
           <t>02.482.141/0001-13</t>
         </is>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
+    <row r="778">
+      <c r="A778" t="inlineStr">
         <is>
           <t>80.004.211/0001-31</t>
         </is>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
+    <row r="779">
+      <c r="A779" t="inlineStr">
         <is>
           <t>30.064.803/0001-70</t>
         </is>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
+    <row r="780">
+      <c r="A780" t="inlineStr">
         <is>
           <t>26.158.902/0001-44</t>
         </is>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
+    <row r="781">
+      <c r="A781" t="inlineStr">
         <is>
           <t>41.644.220/0001-35</t>
         </is>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
+    <row r="782">
+      <c r="A782" t="inlineStr">
         <is>
           <t>41.644.220/0001-35</t>
         </is>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
+    <row r="783">
+      <c r="A783" t="inlineStr">
         <is>
           <t>41.644.220/0001-35</t>
         </is>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
+    <row r="784">
+      <c r="A784" t="inlineStr">
         <is>
           <t>04.368.865/0001-66</t>
         </is>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
+    <row r="785">
+      <c r="A785" t="inlineStr">
         <is>
           <t>01.213.772/0001-74</t>
         </is>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
+    <row r="786">
+      <c r="A786" t="inlineStr">
         <is>
           <t>14.798.740/0001-20</t>
         </is>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
+    <row r="787">
+      <c r="A787" t="inlineStr">
         <is>
           <t>01.213.772/0001-74</t>
         </is>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
+    <row r="788">
+      <c r="A788" t="inlineStr">
         <is>
           <t>04.368.865/0001-66</t>
         </is>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
+    <row r="789">
+      <c r="A789" t="inlineStr">
         <is>
           <t>26.158.902/0001-44</t>
         </is>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
+    <row r="790">
+      <c r="A790" t="inlineStr">
         <is>
           <t>04.368.865/0001-66</t>
         </is>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
+    <row r="791">
+      <c r="A791" t="inlineStr">
         <is>
           <t>04.368.865/0001-66</t>
         </is>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
+    <row r="792">
+      <c r="A792" t="inlineStr">
         <is>
           <t>41.644.220/0001-35</t>
         </is>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
+    <row r="793">
+      <c r="A793" t="inlineStr">
         <is>
           <t>01.213.772/0001-74</t>
         </is>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
+    <row r="794">
+      <c r="A794" t="inlineStr">
         <is>
           <t>14.798.740/0001-20</t>
         </is>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
+    <row r="795">
+      <c r="A795" t="inlineStr">
         <is>
           <t>14.798.740/0026-88</t>
         </is>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
+    <row r="796">
+      <c r="A796" t="inlineStr">
         <is>
           <t>14.798.740/0025-05</t>
         </is>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
+    <row r="797">
+      <c r="A797" t="inlineStr">
         <is>
           <t>14.798.740/0024-16</t>
         </is>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
+    <row r="798">
+      <c r="A798" t="inlineStr">
         <is>
           <t>14.798.740/0023-35</t>
         </is>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
+    <row r="799">
+      <c r="A799" t="inlineStr">
         <is>
           <t>14.798.740/0022-54</t>
         </is>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
+    <row r="800">
+      <c r="A800" t="inlineStr">
         <is>
           <t>14.798.740/0022-54</t>
         </is>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
+    <row r="801">
+      <c r="A801" t="inlineStr">
         <is>
           <t>14.798.740/0021-73</t>
         </is>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
+    <row r="802">
+      <c r="A802" t="inlineStr">
         <is>
           <t>14.798.740/0020-92</t>
         </is>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
+    <row r="803">
+      <c r="A803" t="inlineStr">
         <is>
           <t>14.798.740/0019-59</t>
         </is>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
+    <row r="804">
+      <c r="A804" t="inlineStr">
         <is>
           <t>14.798.740/0018-78</t>
         </is>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
+    <row r="805">
+      <c r="A805" t="inlineStr">
         <is>
           <t>14.798.740/0017-97</t>
         </is>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
+    <row r="806">
+      <c r="A806" t="inlineStr">
         <is>
           <t>14.798.740/0015-25</t>
         </is>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
+    <row r="807">
+      <c r="A807" t="inlineStr">
         <is>
           <t>14.798.740/0014-44</t>
         </is>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
+    <row r="808">
+      <c r="A808" t="inlineStr">
         <is>
           <t>14.798.740/0013-63</t>
         </is>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
+    <row r="809">
+      <c r="A809" t="inlineStr">
         <is>
           <t>14.798.740/0012-82</t>
         </is>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
+    <row r="810">
+      <c r="A810" t="inlineStr">
         <is>
           <t>14.798.740/0016-06</t>
         </is>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
+    <row r="811">
+      <c r="A811" t="inlineStr">
         <is>
           <t>14.798.740/0011-00</t>
         </is>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
+    <row r="812">
+      <c r="A812" t="inlineStr">
         <is>
           <t>14.798.740/0010-10</t>
         </is>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
+    <row r="813">
+      <c r="A813" t="inlineStr">
         <is>
           <t>14.798.740/0009-87</t>
         </is>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
+    <row r="814">
+      <c r="A814" t="inlineStr">
         <is>
           <t>14.798.740/0008-04</t>
         </is>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
+    <row r="815">
+      <c r="A815" t="inlineStr">
         <is>
           <t>14.798.740/0007-15</t>
         </is>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
+    <row r="816">
+      <c r="A816" t="inlineStr">
         <is>
           <t>14.798.740/0006-34</t>
         </is>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
+    <row r="817">
+      <c r="A817" t="inlineStr">
         <is>
           <t>14.798.740/0005-53</t>
         </is>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
+    <row r="818">
+      <c r="A818" t="inlineStr">
         <is>
           <t>14.798.740/0005-53</t>
         </is>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
+    <row r="819">
+      <c r="A819" t="inlineStr">
         <is>
           <t>14.798.740/0004-72</t>
         </is>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
+    <row r="820">
+      <c r="A820" t="inlineStr">
         <is>
           <t>14.798.740/0004-72</t>
         </is>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
+    <row r="821">
+      <c r="A821" t="inlineStr">
         <is>
           <t>14.798.740/0003-91</t>
         </is>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
+    <row r="822">
+      <c r="A822" t="inlineStr">
         <is>
           <t>14.798.740/0022-54</t>
         </is>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
+    <row r="823">
+      <c r="A823" t="inlineStr">
         <is>
           <t>14.798.740/0001-20</t>
         </is>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
+    <row r="824">
+      <c r="A824" t="inlineStr">
         <is>
           <t>14.798.740/0001-20</t>
         </is>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
+    <row r="825">
+      <c r="A825" t="inlineStr">
         <is>
           <t>02.482.141/0001-13</t>
         </is>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
+    <row r="826">
+      <c r="A826" t="inlineStr">
         <is>
           <t>10.600.372/0001-02</t>
         </is>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
+    <row r="827">
+      <c r="A827" t="inlineStr">
         <is>
           <t>09.549.705/0001-37</t>
         </is>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
+    <row r="828">
+      <c r="A828" t="inlineStr">
         <is>
           <t>10.385.770/0001-53</t>
         </is>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
+    <row r="829">
+      <c r="A829" t="inlineStr">
         <is>
           <t>19.484.651/0001-22</t>
         </is>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
+    <row r="830">
+      <c r="A830" t="inlineStr">
         <is>
           <t>30.177.339/0001-29</t>
         </is>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
+    <row r="831">
+      <c r="A831" t="inlineStr">
         <is>
           <t>03.688.545/0008-05</t>
         </is>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
+    <row r="832">
+      <c r="A832" t="inlineStr">
         <is>
           <t>09.452.599/0001-79</t>
         </is>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
+    <row r="833">
+      <c r="A833" t="inlineStr">
         <is>
           <t>40.432.544/0001-47</t>
         </is>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
+    <row r="834">
+      <c r="A834" t="inlineStr">
         <is>
           <t>00.169.369/0001-22</t>
         </is>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
+    <row r="835">
+      <c r="A835" t="inlineStr">
         <is>
           <t>40.432.544/0001-47</t>
         </is>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
+    <row r="836">
+      <c r="A836" t="inlineStr">
         <is>
           <t>29.917.413/0001-17</t>
         </is>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
+    <row r="837">
+      <c r="A837" t="inlineStr">
         <is>
           <t>00.850.974/0001-64</t>
         </is>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
+    <row r="838">
+      <c r="A838" t="inlineStr">
         <is>
           <t>00.850.974/0001-64</t>
         </is>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
+    <row r="839">
+      <c r="A839" t="inlineStr">
         <is>
           <t>09.546.976/0001-39</t>
         </is>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
+    <row r="840">
+      <c r="A840" t="inlineStr">
         <is>
           <t>12.117.963/0001-59</t>
         </is>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
+    <row r="841">
+      <c r="A841" t="inlineStr">
         <is>
           <t>29.716.712/0001-93</t>
         </is>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
+    <row r="842">
+      <c r="A842" t="inlineStr">
         <is>
           <t>02.482.141/0001-13</t>
         </is>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
+    <row r="843">
+      <c r="A843" t="inlineStr">
         <is>
           <t>10.600.372/0001-02</t>
         </is>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
+    <row r="844">
+      <c r="A844" t="inlineStr">
         <is>
           <t>10.600.372/0001-02</t>
         </is>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
+    <row r="845">
+      <c r="A845" t="inlineStr">
         <is>
           <t>39.707.683/0001-57</t>
         </is>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
+    <row r="846">
+      <c r="A846" t="inlineStr">
         <is>
           <t>33.683.111/0001-07</t>
         </is>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
+    <row r="847">
+      <c r="A847" t="inlineStr">
         <is>
           <t>33.683.111/0001-07</t>
         </is>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
+    <row r="848">
+      <c r="A848" t="inlineStr">
         <is>
           <t>29.716.712/0001-93</t>
         </is>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
+    <row r="849">
+      <c r="A849" t="inlineStr">
         <is>
           <t>27.509.475/0001-64</t>
         </is>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
+    <row r="850">
+      <c r="A850" t="inlineStr">
         <is>
           <t>19.087.611/0001-47</t>
         </is>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
+    <row r="851">
+      <c r="A851" t="inlineStr">
         <is>
           <t>05.969.672/0001-23</t>
         </is>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
+    <row r="852">
+      <c r="A852" t="inlineStr">
         <is>
           <t>01.580.947/0001-81</t>
         </is>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>02.482.141/0001-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>03.803.317/0007-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>05.337.875/0001-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>14.798.740/0021-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>33.000.118/0001-79</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>02.335.970/0001-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>02.477.571/0001-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>39.707.683/0001-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>14.798.740/0008-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>29.917.413/0001-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>19.087.611/0001-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>47.204.354/0001-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>09.222.369/0001-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>02.460.809/0001-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>08.612.803/0001-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>39.979.804/0001-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>76.535.764/0001-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>14.798.740/0020-92</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>05.340.639/0001-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>17.685.568/0001-96</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>14.798.740/0016-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>02.136.854/0001-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>14.798.740/0025-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>00.371.074/0001-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>21.122.489/0001-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>11.923.946/0001-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>14.798.740/0014-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>29.716.712/0001-93</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>02.558.157/0001-62</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>09.549.705/0001-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>00.169.369/0001-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>09.546.976/0001-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="885"/>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>14.798.740/0013-63</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>44.768.699/0001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>41.644.220/0001-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>01.213.772/0001-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>80.004.211/0001-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>14.798.740/0009-87</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>32.908.188/0001-67</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>27.509.475/0001-64</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>14.798.740/0018-78</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>10.385.770/0001-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>22.862.119/0001-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>33.683.111/0001-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>01.580.947/0001-81</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>14.798.740/0004-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>14.798.740/0011-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>53.113.791/0001-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>00.850.974/0001-64</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>17.791.395/0001-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>14.798.740/0024-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>03.688.545/0008-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>12.117.963/0001-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>05.969.672/0001-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>09.452.599/0001-79</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>04.724.729/0001-61</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>19.484.651/0001-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>85.200.665/0001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>05.423.963/0001-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>30.064.803/0001-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
         <is>
           <t>14.798.740/0012-82</t>
         </is>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>47.204.354/0001-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>17.685.568/0001-96</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>30.064.803/0001-70</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>14.798.740/0009-87</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>13.498.644/0001-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>40.432.544/0001-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>72.381.189/0001-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>14.798.740/0010-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>10.600.372/0001-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>14.798.740/0026-88</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>14.798.740/0023-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>14.798.740/0019-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>14.798.740/0005-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>14.798.740/0022-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>14.798.740/0007-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>04.368.865/0001-66</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>30.177.339/0001-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>14.798.740/0001-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>13.134.811/0001-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>11.324.248/0001-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>14.798.740/0006-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>15.087.394/0001-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>18.979.791/0001-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>01.590.728/0009-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>19.232.342/0001-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>14.798.740/0015-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>26.158.902/0001-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
         <is>
           <t>14.798.740/0003-91</t>
         </is>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>11.923.946/0001-46</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>32.908.188/0001-67</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>14.798.740/0010-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>14.798.740/0006-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>14.798.740/0015-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>01.580.947/0001-81</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>44.768.699/0001-00</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
+    <row r="939">
+      <c r="A939" t="inlineStr">
         <is>
           <t>07.897.039/0001-00</t>
         </is>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>01.590.728/0009-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>00.371.074/0001-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>29.917.413/0001-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>08.612.803/0001-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>09.452.599/0001-79</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
+    <row r="940">
+      <c r="A940" t="inlineStr">
         <is>
           <t>14.798.740/0017-97</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>04.724.729/0001-61</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>33.000.118/0001-79</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>05.337.875/0001-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>76.535.764/0001-43</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>05.340.639/0001-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>13.498.644/0001-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>10.600.372/0001-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>18.979.791/0001-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>05.969.672/0001-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>04.368.865/0001-66</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>33.683.111/0001-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>29.716.712/0001-93</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>21.122.489/0001-44</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>14.798.740/0001-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>14.798.740/0018-78</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>09.222.369/0001-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>00.169.369/0001-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>09.546.976/0001-39</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>03.688.545/0008-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>26.158.902/0001-44</t>
-        </is>
-      </c>
-    </row>
-    <row r="445"/>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>39.979.804/0001-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>53.113.791/0001-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>00.850.974/0001-64</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>85.200.665/0001-00</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>05.423.963/0001-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>14.798.740/0016-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>14.798.740/0026-88</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>14.798.740/0025-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>14.798.740/0019-59</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>30.177.339/0001-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>13.134.811/0001-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>14.798.740/0011-00</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>19.484.651/0001-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>80.004.211/0001-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>14.798.740/0007-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>14.798.740/0004-72</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>09.549.705/0001-37</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>14.798.740/0008-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>19.087.611/0001-47</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>01.213.772/0001-74</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>72.381.189/0001-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>14.798.740/0014-44</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>02.136.854/0001-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>41.644.220/0001-35</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>17.791.395/0001-90</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>02.335.970/0001-73</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>14.798.740/0020-92</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>02.558.157/0001-62</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>02.460.809/0001-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>02.482.141/0001-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>14.798.740/0005-53</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>12.117.963/0001-59</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>14.798.740/0021-73</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>19.232.342/0001-65</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>14.798.740/0023-35</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>10.385.770/0001-53</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>27.509.475/0001-64</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>39.707.683/0001-57</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>02.477.571/0001-47</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>15.087.394/0001-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>03.803.317/0007-40</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>11.324.248/0001-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>14.798.740/0022-54</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>22.862.119/0001-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>14.798.740/0013-63</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>40.432.544/0001-47</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>14.798.740/0024-16</t>
         </is>
       </c>
     </row>
